--- a/Distribution/Electrode_Rankings/electrodes_ranking.xlsx
+++ b/Distribution/Electrode_Rankings/electrodes_ranking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\fc_channelselection\Distribution\Electrode_Rankings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm\Distribution\Electrode_Rankings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C9A8CD-8B85-485B-8783-D06087899308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365FCDCC-71B2-4805-9264-DD35AD968E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="77">
   <si>
     <t>electrodes</t>
   </si>
@@ -283,6 +283,10 @@
     <t>modeled_gaussian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>mean_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -331,7 +335,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2543,7 +2547,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="9" style="1"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="6" max="6" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2559,10 +2564,12 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -2574,7 +2581,10 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
+        <v>3.4954216373581201E-3</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.37998964273791003</v>
       </c>
     </row>
@@ -2588,7 +2598,10 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
+        <v>3.5918765252834798E-3</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.39501863216038302</v>
       </c>
     </row>
@@ -2602,7 +2615,10 @@
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
+        <v>2.8678666469829799E-3</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.28220800081981101</v>
       </c>
     </row>
@@ -2616,7 +2632,10 @@
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
+        <v>2.9281322037327702E-3</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.29159819798258102</v>
       </c>
     </row>
@@ -2630,7 +2649,10 @@
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
+        <v>3.5844110769237998E-3</v>
+      </c>
+      <c r="F6" s="1">
         <v>0.39385541330393198</v>
       </c>
     </row>
@@ -2644,7 +2666,10 @@
       <c r="D7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
+        <v>1.87014795814102E-3</v>
+      </c>
+      <c r="F7" s="1">
         <v>0.126749797055036</v>
       </c>
     </row>
@@ -2658,7 +2683,10 @@
       <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
+        <v>2.6681435527116399E-3</v>
+      </c>
+      <c r="F8" s="1">
         <v>0.25108841387311098</v>
       </c>
     </row>
@@ -2672,7 +2700,10 @@
       <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
+        <v>2.45760188541645E-3</v>
+      </c>
+      <c r="F9" s="1">
         <v>0.21828314543282401</v>
       </c>
     </row>
@@ -2686,7 +2717,10 @@
       <c r="D10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
+        <v>2.5067631118463399E-3</v>
+      </c>
+      <c r="F10" s="1">
         <v>0.22594313621092099</v>
       </c>
     </row>
@@ -2700,7 +2734,10 @@
       <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
+        <v>2.6155035670140099E-3</v>
+      </c>
+      <c r="F11" s="1">
         <v>0.24288638487007</v>
       </c>
     </row>
@@ -2714,7 +2751,10 @@
       <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
+        <v>2.9689199235157101E-3</v>
+      </c>
+      <c r="F12" s="1">
         <v>0.29795348201607602</v>
       </c>
     </row>
@@ -2728,7 +2768,10 @@
       <c r="D13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
+        <v>2.2734712312292198E-3</v>
+      </c>
+      <c r="F13" s="1">
         <v>0.189593073694062</v>
       </c>
     </row>
@@ -2742,7 +2785,10 @@
       <c r="D14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
+        <v>1.64366760692653E-3</v>
+      </c>
+      <c r="F14" s="1">
         <v>9.1461063886485602E-2</v>
       </c>
     </row>
@@ -2756,7 +2802,10 @@
       <c r="D15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
+        <v>2.1011953390334698E-3</v>
+      </c>
+      <c r="F15" s="1">
         <v>0.162750135847713</v>
       </c>
     </row>
@@ -2770,11 +2819,14 @@
       <c r="D16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
+        <v>1.7642732731989301E-3</v>
+      </c>
+      <c r="F16" s="1">
         <v>0.11025307455266101</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -2784,11 +2836,14 @@
       <c r="D17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
+        <v>2.1344857037171902E-3</v>
+      </c>
+      <c r="F17" s="1">
         <v>0.16793722951878801</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -2798,11 +2853,14 @@
       <c r="D18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
+        <v>2.5896556073195802E-3</v>
+      </c>
+      <c r="F18" s="1">
         <v>0.23885891958349301</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -2812,11 +2870,14 @@
       <c r="D19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
+        <v>2.92137770909977E-3</v>
+      </c>
+      <c r="F19" s="1">
         <v>0.29054575543065903</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -2826,11 +2887,14 @@
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
+        <v>3.3713225056345498E-3</v>
+      </c>
+      <c r="F20" s="1">
         <v>0.36065330242247901</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -2840,11 +2904,14 @@
       <c r="D21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
+        <v>3.12925771269983E-3</v>
+      </c>
+      <c r="F21" s="1">
         <v>0.32293630030036602</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -2854,11 +2921,14 @@
       <c r="D22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
+        <v>1.77798108948373E-3</v>
+      </c>
+      <c r="F22" s="1">
         <v>0.11238893962264999</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -2868,11 +2938,14 @@
       <c r="D23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
+        <v>2.1364704712168998E-3</v>
+      </c>
+      <c r="F23" s="1">
         <v>0.16824648341354401</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -2882,11 +2955,14 @@
       <c r="D24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
+        <v>2.4873319999726301E-3</v>
+      </c>
+      <c r="F24" s="1">
         <v>0.22291550348957201</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -2896,11 +2972,14 @@
       <c r="D25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
+        <v>7.4745951208934399E-3</v>
+      </c>
+      <c r="F25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -2910,11 +2989,14 @@
       <c r="D26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
+        <v>2.5025899976969098E-3</v>
+      </c>
+      <c r="F26" s="1">
         <v>0.22529290800829099</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -2924,11 +3006,14 @@
       <c r="D27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
+        <v>2.9110373716215001E-3</v>
+      </c>
+      <c r="F27" s="1">
         <v>0.28893458956930901</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -2938,11 +3023,14 @@
       <c r="D28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
+        <v>3.1735894533662101E-3</v>
+      </c>
+      <c r="F28" s="1">
         <v>0.32984379121021401</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -2952,11 +3040,14 @@
       <c r="D29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
+        <v>1.96716200316763E-3</v>
+      </c>
+      <c r="F29" s="1">
         <v>0.14186591079376601</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -2966,11 +3057,14 @@
       <c r="D30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
+        <v>2.7866449158136298E-3</v>
+      </c>
+      <c r="F30" s="1">
         <v>0.26955254535379403</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -2980,11 +3074,14 @@
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
+        <v>2.8147810883996402E-3</v>
+      </c>
+      <c r="F31" s="1">
         <v>0.27393654547321999</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -2994,11 +3091,14 @@
       <c r="D32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
+        <v>2.4049504029550499E-3</v>
+      </c>
+      <c r="F32" s="1">
         <v>0.21007932507690599</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -3008,11 +3108,14 @@
       <c r="D33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33">
+        <v>5.17096960431674E-3</v>
+      </c>
+      <c r="F33" s="1">
         <v>0.64106290935922805</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>32</v>
       </c>
@@ -3022,11 +3125,14 @@
       <c r="D34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34">
+        <v>5.1887086232275297E-3</v>
+      </c>
+      <c r="F34" s="1">
         <v>0.64382689087752698</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>33</v>
       </c>
@@ -3036,11 +3142,14 @@
       <c r="D35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35">
+        <v>2.68794125003765E-3</v>
+      </c>
+      <c r="F35" s="1">
         <v>0.25417316561666298</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>34</v>
       </c>
@@ -3050,11 +3159,14 @@
       <c r="D36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36">
+        <v>3.0283545505424298E-3</v>
+      </c>
+      <c r="F36" s="1">
         <v>0.30721420897482199</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>35</v>
       </c>
@@ -3064,11 +3176,14 @@
       <c r="D37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37">
+        <v>2.4741085047350298E-3</v>
+      </c>
+      <c r="F37" s="1">
         <v>0.22085510225611801</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>36</v>
       </c>
@@ -3078,11 +3193,14 @@
       <c r="D38" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38">
+        <v>1.0566775959073001E-3</v>
+      </c>
+      <c r="F38" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>37</v>
       </c>
@@ -3092,11 +3210,14 @@
       <c r="D39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39">
+        <v>3.1652074177433301E-3</v>
+      </c>
+      <c r="F39" s="1">
         <v>0.32853775553462899</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>38</v>
       </c>
@@ -3106,11 +3227,14 @@
       <c r="D40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40">
+        <v>2.8720128752583E-3</v>
+      </c>
+      <c r="F40" s="1">
         <v>0.28285403983590701</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>39</v>
       </c>
@@ -3120,11 +3244,14 @@
       <c r="D41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41">
+        <v>2.82772494361283E-3</v>
+      </c>
+      <c r="F41" s="1">
         <v>0.27595337497008898</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>40</v>
       </c>
@@ -3134,11 +3261,14 @@
       <c r="D42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42">
+        <v>2.68036289501721E-3</v>
+      </c>
+      <c r="F42" s="1">
         <v>0.252992354359798</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
         <v>41</v>
       </c>
@@ -3148,11 +3278,14 @@
       <c r="D43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43">
+        <v>4.1108766244722398E-3</v>
+      </c>
+      <c r="F43" s="1">
         <v>0.475885938823018</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
         <v>42</v>
       </c>
@@ -3162,11 +3295,14 @@
       <c r="D44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44">
+        <v>2.9251089218812398E-3</v>
+      </c>
+      <c r="F44" s="1">
         <v>0.29112712936236801</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <v>43</v>
       </c>
@@ -3176,11 +3312,14 @@
       <c r="D45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45">
+        <v>3.1718028893417301E-3</v>
+      </c>
+      <c r="F45" s="1">
         <v>0.32956542012499501</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
         <v>44</v>
       </c>
@@ -3190,11 +3329,14 @@
       <c r="D46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46">
+        <v>2.5886967289116799E-3</v>
+      </c>
+      <c r="F46" s="1">
         <v>0.238709513226182</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
         <v>45</v>
       </c>
@@ -3204,11 +3346,14 @@
       <c r="D47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47">
+        <v>2.68515429638819E-3</v>
+      </c>
+      <c r="F47" s="1">
         <v>0.25373892015933502</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <v>46</v>
       </c>
@@ -3218,11 +3363,14 @@
       <c r="D48" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48">
+        <v>2.7783228588749201E-3</v>
+      </c>
+      <c r="F48" s="1">
         <v>0.26825585517670397</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
         <v>47</v>
       </c>
@@ -3232,11 +3380,14 @@
       <c r="D49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49">
+        <v>3.2720848919275099E-3</v>
+      </c>
+      <c r="F49" s="1">
         <v>0.34519072630224501</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
         <v>48</v>
       </c>
@@ -3246,11 +3397,14 @@
       <c r="D50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50">
+        <v>3.0419740173744801E-3</v>
+      </c>
+      <c r="F50" s="1">
         <v>0.30933630799293499</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <v>49</v>
       </c>
@@ -3260,11 +3414,14 @@
       <c r="D51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51">
+        <v>3.0733139063727501E-3</v>
+      </c>
+      <c r="F51" s="1">
         <v>0.31421949090245199</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
         <v>50</v>
       </c>
@@ -3274,11 +3431,14 @@
       <c r="D52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52">
+        <v>2.70936185777819E-3</v>
+      </c>
+      <c r="F52" s="1">
         <v>0.25751078897697099</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" s="1">
         <v>51</v>
       </c>
@@ -3288,11 +3448,14 @@
       <c r="D53" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53">
+        <v>2.8574703590906699E-3</v>
+      </c>
+      <c r="F53" s="1">
         <v>0.280588117119491</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
         <v>52</v>
       </c>
@@ -3302,11 +3465,14 @@
       <c r="D54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54">
+        <v>2.04601007734441E-3</v>
+      </c>
+      <c r="F54" s="1">
         <v>0.15415151806855901</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
         <v>53</v>
       </c>
@@ -3316,11 +3482,14 @@
       <c r="D55" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55">
+        <v>2.5066121230242801E-3</v>
+      </c>
+      <c r="F55" s="1">
         <v>0.225919610089451</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
         <v>54</v>
       </c>
@@ -3330,11 +3499,14 @@
       <c r="D56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56">
+        <v>1.9920651949275098E-3</v>
+      </c>
+      <c r="F56" s="1">
         <v>0.145746168327575</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
         <v>55</v>
       </c>
@@ -3344,11 +3516,14 @@
       <c r="D57" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57">
+        <v>2.4242993208227598E-3</v>
+      </c>
+      <c r="F57" s="1">
         <v>0.21309415084908601</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
         <v>56</v>
       </c>
@@ -3358,11 +3533,14 @@
       <c r="D58" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58">
+        <v>2.7844256577323899E-3</v>
+      </c>
+      <c r="F58" s="1">
         <v>0.26920675462254001</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
         <v>57</v>
       </c>
@@ -3372,11 +3550,14 @@
       <c r="D59" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59">
+        <v>2.6919184892897001E-3</v>
+      </c>
+      <c r="F59" s="1">
         <v>0.25479287383400101</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
         <v>58</v>
       </c>
@@ -3386,11 +3567,14 @@
       <c r="D60" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60">
+        <v>2.4198186436599199E-3</v>
+      </c>
+      <c r="F60" s="1">
         <v>0.21239600012666801</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
         <v>59</v>
       </c>
@@ -3400,11 +3584,14 @@
       <c r="D61" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61">
+        <v>2.36176458573726E-3</v>
+      </c>
+      <c r="F61" s="1">
         <v>0.20335038469734501</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
         <v>60</v>
       </c>
@@ -3414,11 +3601,14 @@
       <c r="D62" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62">
+        <v>1.8921124660822501E-3</v>
+      </c>
+      <c r="F62" s="1">
         <v>0.13017216749803501</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
         <v>61</v>
       </c>
@@ -3428,7 +3618,10 @@
       <c r="D63" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63">
+        <v>3.8593913019357301E-3</v>
+      </c>
+      <c r="F63" s="1">
         <v>0.43670108947424202</v>
       </c>
     </row>
@@ -3442,7 +3635,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Distribution/Electrode_Rankings/electrodes_ranking.xlsx
+++ b/Distribution/Electrode_Rankings/electrodes_ranking.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm\Distribution\Electrode_Rankings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365FCDCC-71B2-4805-9264-DD35AD968E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DC8E3C-44C0-4B59-B9C2-B2D91B151788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ranking" sheetId="5" r:id="rId1"/>
     <sheet name="label_driven_mi_origin" sheetId="7" r:id="rId2"/>
-    <sheet name="label_driven_mi" sheetId="1" r:id="rId3"/>
-    <sheet name="data_driven_mi" sheetId="4" r:id="rId4"/>
-    <sheet name="data_driven_pcc" sheetId="2" r:id="rId5"/>
-    <sheet name="data_driven_plv" sheetId="3" r:id="rId6"/>
-    <sheet name="data_driven_pcc_dm" sheetId="6" r:id="rId7"/>
-    <sheet name="modeled_sigmoid" sheetId="8" r:id="rId8"/>
-    <sheet name="modeled_g_gaussian" sheetId="9" r:id="rId9"/>
+    <sheet name="label_driven_anova_origin" sheetId="10" r:id="rId3"/>
+    <sheet name="label_driven_mi" sheetId="1" r:id="rId4"/>
+    <sheet name="data_driven_mi" sheetId="4" r:id="rId5"/>
+    <sheet name="data_driven_pcc" sheetId="2" r:id="rId6"/>
+    <sheet name="data_driven_plv" sheetId="3" r:id="rId7"/>
+    <sheet name="data_driven_pcc_dm" sheetId="6" r:id="rId8"/>
+    <sheet name="modeled_sigmoid" sheetId="8" r:id="rId9"/>
+    <sheet name="modeled_g_gaussian" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="77">
   <si>
     <t>electrodes</t>
   </si>
@@ -284,7 +285,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mean_</t>
+    <t>normalized</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -328,10 +329,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1074,7 +1078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFAF64A-5DEA-4FD4-B8E4-1ED29CE4150B}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2539,1090 +2543,1803 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EAFD91-6FDD-4E7B-8AEB-0969C16E2F78}">
+  <dimension ref="A1:D63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-0.68132599999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-0.68982699999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-0.708708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-0.71575599999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-0.71599599999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-0.767432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-0.76957699999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-0.77654000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-0.78383000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-0.78642999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-0.78888000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-0.79664900000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-0.80477699999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-0.81232700000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-0.81735500000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-0.82128599999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-0.82751399999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-0.83095799999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-0.83143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>38</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-0.83247499999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-0.86903900000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>48</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-0.88529500000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>19</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-0.90429000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-0.91323900000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-0.92286699999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>57</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-0.93002200000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-0.93906000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-0.948322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>61</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-0.95650999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>53</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-0.95657700000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-0.95757000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-0.96019299999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>52</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-0.97586200000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>41</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-0.98143000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>60</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-0.98394400000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-0.98895900000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>51</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-1.00177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-1.00657</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>22</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-1.01013</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-1.01128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>56</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="1">
+        <v>-1.0119499999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>49</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="1">
+        <v>-1.0170300000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>59</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-1.0263500000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>50</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="1">
+        <v>-1.0396399999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="1">
+        <v>-1.04237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>14</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="1">
+        <v>-1.04908</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>31</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>-1.08196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>35</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-1.0972</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>23</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>-1.10314</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>32</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1">
+        <v>-1.1107499999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>58</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="1">
+        <v>-1.1178900000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>37</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="1">
+        <v>-1.125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="1">
+        <v>-1.1382399999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>28</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="1">
+        <v>-1.18154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>18</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="1">
+        <v>-1.2151099999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>44</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="1">
+        <v>-1.2319800000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>55</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="1">
+        <v>-1.27948</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>26</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="1">
+        <v>-1.3246500000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>36</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="1">
+        <v>-1.4127000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="1">
+        <v>-1.45506</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>27</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="1">
+        <v>-1.58636</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AE29D4-638D-4C81-8AC6-D9273822ACF9}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
+    <col min="1" max="5" width="9" style="2"/>
     <col min="6" max="6" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="1">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>3.4954216373581201E-3</v>
       </c>
-      <c r="F2" s="1">
-        <v>0.37998964273791003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="1">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>3.5918765252834798E-3</v>
       </c>
-      <c r="F3" s="1">
-        <v>0.39501863216038302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>2.8678666469829799E-3</v>
       </c>
-      <c r="F4" s="1">
-        <v>0.28220800081981101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>2.9281322037327702E-3</v>
       </c>
-      <c r="F5" s="1">
-        <v>0.29159819798258102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>3.5844110769237998E-3</v>
       </c>
-      <c r="F6" s="1">
-        <v>0.39385541330393198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>1.87014795814102E-3</v>
       </c>
-      <c r="F7" s="1">
-        <v>0.126749797055036</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>2.6681435527116399E-3</v>
       </c>
-      <c r="F8" s="1">
-        <v>0.25108841387311098</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>2.45760188541645E-3</v>
       </c>
-      <c r="F9" s="1">
-        <v>0.21828314543282401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>2.5067631118463399E-3</v>
       </c>
-      <c r="F10" s="1">
-        <v>0.22594313621092099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>9</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>2.6155035670140099E-3</v>
       </c>
-      <c r="F11" s="1">
-        <v>0.24288638487007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="1">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>10</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>2.9689199235157101E-3</v>
       </c>
-      <c r="F12" s="1">
-        <v>0.29795348201607602</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="1">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>2.2734712312292198E-3</v>
       </c>
-      <c r="F13" s="1">
-        <v>0.189593073694062</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
         <v>12</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>12</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>1.64366760692653E-3</v>
       </c>
-      <c r="F14" s="1">
-        <v>9.1461063886485602E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
         <v>13</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>13</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>2.1011953390334698E-3</v>
       </c>
-      <c r="F15" s="1">
-        <v>0.162750135847713</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="1">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
         <v>14</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>14</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>1.7642732731989301E-3</v>
       </c>
-      <c r="F16" s="1">
-        <v>0.11025307455266101</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="1">
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>15</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>2.1344857037171902E-3</v>
       </c>
-      <c r="F17" s="1">
-        <v>0.16793722951878801</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="1">
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
         <v>16</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>16</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>2.5896556073195802E-3</v>
       </c>
-      <c r="F18" s="1">
-        <v>0.23885891958349301</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="1">
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
         <v>17</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>17</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>2.92137770909977E-3</v>
       </c>
-      <c r="F19" s="1">
-        <v>0.29054575543065903</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="1">
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
         <v>18</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>18</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>3.3713225056345498E-3</v>
       </c>
-      <c r="F20" s="1">
-        <v>0.36065330242247901</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="1">
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
         <v>19</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>19</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>3.12925771269983E-3</v>
       </c>
-      <c r="F21" s="1">
-        <v>0.32293630030036602</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="1">
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
         <v>20</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>20</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>1.77798108948373E-3</v>
       </c>
-      <c r="F22" s="1">
-        <v>0.11238893962264999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="1">
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
         <v>21</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>21</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>2.1364704712168998E-3</v>
       </c>
-      <c r="F23" s="1">
-        <v>0.16824648341354401</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="1">
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
         <v>22</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>22</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>2.4873319999726301E-3</v>
       </c>
-      <c r="F24" s="1">
-        <v>0.22291550348957201</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="1">
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
         <v>23</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>23</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>7.4745951208934399E-3</v>
       </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="1">
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="2">
         <v>24</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>24</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>2.5025899976969098E-3</v>
       </c>
-      <c r="F26" s="1">
-        <v>0.22529290800829099</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="1">
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
         <v>25</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>25</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>2.9110373716215001E-3</v>
       </c>
-      <c r="F27" s="1">
-        <v>0.28893458956930901</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="1">
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
         <v>26</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>26</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>3.1735894533662101E-3</v>
       </c>
-      <c r="F28" s="1">
-        <v>0.32984379121021401</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="1">
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="2">
         <v>27</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>27</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>1.96716200316763E-3</v>
       </c>
-      <c r="F29" s="1">
-        <v>0.14186591079376601</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="1">
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="2">
         <v>28</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>28</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>2.7866449158136298E-3</v>
       </c>
-      <c r="F30" s="1">
-        <v>0.26955254535379403</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="1">
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="2">
         <v>29</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>29</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>2.8147810883996402E-3</v>
       </c>
-      <c r="F31" s="1">
-        <v>0.27393654547321999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="1">
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="2">
         <v>30</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>30</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>2.4049504029550499E-3</v>
       </c>
-      <c r="F32" s="1">
-        <v>0.21007932507690599</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="1">
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="2">
         <v>31</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>31</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>5.17096960431674E-3</v>
       </c>
-      <c r="F33" s="1">
-        <v>0.64106290935922805</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="1">
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="2">
         <v>32</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <v>32</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>5.1887086232275297E-3</v>
       </c>
-      <c r="F34" s="1">
-        <v>0.64382689087752698</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="1">
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="2">
         <v>33</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <v>33</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>2.68794125003765E-3</v>
       </c>
-      <c r="F35" s="1">
-        <v>0.25417316561666298</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="1">
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="2">
         <v>34</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <v>34</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>3.0283545505424298E-3</v>
       </c>
-      <c r="F36" s="1">
-        <v>0.30721420897482199</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="1">
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="2">
         <v>35</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <v>35</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>2.4741085047350298E-3</v>
       </c>
-      <c r="F37" s="1">
-        <v>0.22085510225611801</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="1">
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="2">
         <v>36</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <v>36</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>1.0566775959073001E-3</v>
       </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="1">
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="2">
         <v>37</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <v>37</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>3.1652074177433301E-3</v>
       </c>
-      <c r="F39" s="1">
-        <v>0.32853775553462899</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="1">
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="2">
         <v>38</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
         <v>38</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>2.8720128752583E-3</v>
       </c>
-      <c r="F40" s="1">
-        <v>0.28285403983590701</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="1">
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="2">
         <v>39</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <v>39</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>2.82772494361283E-3</v>
       </c>
-      <c r="F41" s="1">
-        <v>0.27595337497008898</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="1">
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="2">
         <v>40</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <v>40</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>2.68036289501721E-3</v>
       </c>
-      <c r="F42" s="1">
-        <v>0.252992354359798</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="1">
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="2">
         <v>41</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <v>41</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <v>4.1108766244722398E-3</v>
       </c>
-      <c r="F43" s="1">
-        <v>0.475885938823018</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="1">
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="2">
         <v>42</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="2">
         <v>42</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>2.9251089218812398E-3</v>
       </c>
-      <c r="F44" s="1">
-        <v>0.29112712936236801</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="1">
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="2">
         <v>43</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="2">
         <v>43</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <v>3.1718028893417301E-3</v>
       </c>
-      <c r="F45" s="1">
-        <v>0.32956542012499501</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="1">
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="2">
         <v>44</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="2">
         <v>44</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <v>2.5886967289116799E-3</v>
       </c>
-      <c r="F46" s="1">
-        <v>0.238709513226182</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="1">
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="2">
         <v>45</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="2">
         <v>45</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>2.68515429638819E-3</v>
       </c>
-      <c r="F47" s="1">
-        <v>0.25373892015933502</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="1">
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="2">
         <v>46</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="2">
         <v>46</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="2">
         <v>2.7783228588749201E-3</v>
       </c>
-      <c r="F48" s="1">
-        <v>0.26825585517670397</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="1">
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="2">
         <v>47</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="2">
         <v>47</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <v>3.2720848919275099E-3</v>
       </c>
-      <c r="F49" s="1">
-        <v>0.34519072630224501</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="1">
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="2">
         <v>48</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="2">
         <v>48</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>3.0419740173744801E-3</v>
       </c>
-      <c r="F50" s="1">
-        <v>0.30933630799293499</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="1">
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="2">
         <v>49</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="2">
         <v>49</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <v>3.0733139063727501E-3</v>
       </c>
-      <c r="F51" s="1">
-        <v>0.31421949090245199</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="1">
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="2">
         <v>50</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="2">
         <v>50</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <v>2.70936185777819E-3</v>
       </c>
-      <c r="F52" s="1">
-        <v>0.25751078897697099</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B53" s="1">
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="2">
         <v>51</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="2">
         <v>51</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2">
         <v>2.8574703590906699E-3</v>
       </c>
-      <c r="F53" s="1">
-        <v>0.280588117119491</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="1">
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="2">
         <v>52</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="2">
         <v>52</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <v>2.04601007734441E-3</v>
       </c>
-      <c r="F54" s="1">
-        <v>0.15415151806855901</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B55" s="1">
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="2">
         <v>53</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="2">
         <v>53</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <v>2.5066121230242801E-3</v>
       </c>
-      <c r="F55" s="1">
-        <v>0.225919610089451</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B56" s="1">
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="2">
         <v>54</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="2">
         <v>54</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2">
         <v>1.9920651949275098E-3</v>
       </c>
-      <c r="F56" s="1">
-        <v>0.145746168327575</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B57" s="1">
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="2">
         <v>55</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="2">
         <v>55</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <v>2.4242993208227598E-3</v>
       </c>
-      <c r="F57" s="1">
-        <v>0.21309415084908601</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B58" s="1">
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="2">
         <v>56</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="2">
         <v>56</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>2.7844256577323899E-3</v>
       </c>
-      <c r="F58" s="1">
-        <v>0.26920675462254001</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B59" s="1">
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="2">
         <v>57</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="2">
         <v>57</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <v>2.6919184892897001E-3</v>
       </c>
-      <c r="F59" s="1">
-        <v>0.25479287383400101</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B60" s="1">
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="2">
         <v>58</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="2">
         <v>58</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="2">
         <v>2.4198186436599199E-3</v>
       </c>
-      <c r="F60" s="1">
-        <v>0.21239600012666801</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B61" s="1">
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="2">
         <v>59</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="2">
         <v>59</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <v>2.36176458573726E-3</v>
       </c>
-      <c r="F61" s="1">
-        <v>0.20335038469734501</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B62" s="1">
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="2">
         <v>60</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="2">
         <v>60</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="2">
         <v>1.8921124660822501E-3</v>
       </c>
-      <c r="F62" s="1">
-        <v>0.13017216749803501</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B63" s="1">
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="2">
         <v>61</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="2">
         <v>61</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="2">
         <v>3.8593913019357301E-3</v>
-      </c>
-      <c r="F63" s="1">
-        <v>0.43670108947424202</v>
       </c>
     </row>
   </sheetData>
@@ -3632,6 +4349,1098 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827548C2-EC26-48AF-982F-F177A04DD394}">
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>629.45784030349705</v>
+      </c>
+      <c r="F2">
+        <v>3.04808878934455E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>722.18709699489102</v>
+      </c>
+      <c r="F3">
+        <v>3.6615439055859803E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>728.48924270580596</v>
+      </c>
+      <c r="F4">
+        <v>3.5784509886711301E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>1240.7078154268399</v>
+      </c>
+      <c r="F5">
+        <v>5.8177409755210102E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>1234.7471945925399</v>
+      </c>
+      <c r="F6">
+        <v>6.7684941360488193E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7">
+        <v>369.114780594693</v>
+      </c>
+      <c r="F7">
+        <v>1.12953304175626E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>808.33614379857897</v>
+      </c>
+      <c r="F8">
+        <v>4.0691161731896797E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>1763.13102934873</v>
+      </c>
+      <c r="F9">
+        <v>8.7339221168863196E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>2785.04012964718</v>
+      </c>
+      <c r="F10">
+        <v>0.12138827825336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>2679.6907938905501</v>
+      </c>
+      <c r="F11">
+        <v>0.12895934053752001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>2596.3896970311598</v>
+      </c>
+      <c r="F12">
+        <v>0.114435099702204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>2162.8106578299298</v>
+      </c>
+      <c r="F13">
+        <v>0.11093105589199501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14">
+        <v>1164.6322087211299</v>
+      </c>
+      <c r="F14">
+        <v>6.5426129218619899E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15">
+        <v>786.72472222933698</v>
+      </c>
+      <c r="F15">
+        <v>3.5625540336664603E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>784.017659182584</v>
+      </c>
+      <c r="F16">
+        <v>3.5636155432080603E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17">
+        <v>1428.4711731269599</v>
+      </c>
+      <c r="F17">
+        <v>7.0009730485844496E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18">
+        <v>2541.1880709796901</v>
+      </c>
+      <c r="F18">
+        <v>0.10318831198377899</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3972.44127159651</v>
+      </c>
+      <c r="F19">
+        <v>0.13691659351089</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>4397.9106245512203</v>
+      </c>
+      <c r="F20">
+        <v>0.138805130989754</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2">
+        <v>19</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>4275.5524333783997</v>
+      </c>
+      <c r="F21">
+        <v>0.150568843365634</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22">
+        <v>2946.6910084793499</v>
+      </c>
+      <c r="F22">
+        <v>0.13902113525245699</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2">
+        <v>21</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23">
+        <v>1604.59686200951</v>
+      </c>
+      <c r="F23">
+        <v>8.2651407485648004E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2">
+        <v>22</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24">
+        <v>921.74544060840299</v>
+      </c>
+      <c r="F24">
+        <v>4.4807072550778197E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>742.09280073959599</v>
+      </c>
+      <c r="F25">
+        <v>3.8856931805972099E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="2">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2">
+        <v>24</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26">
+        <v>1572.75123106039</v>
+      </c>
+      <c r="F26">
+        <v>8.1070149377870895E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <v>3009.9767577348298</v>
+      </c>
+      <c r="F27">
+        <v>0.12638381526188899</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2">
+        <v>26</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>5893.9482540085801</v>
+      </c>
+      <c r="F28">
+        <v>0.19909602009471</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="2">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2">
+        <v>27</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29">
+        <v>82313.751997383399</v>
+      </c>
+      <c r="F29">
+        <v>0.55309936163260498</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="2">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2">
+        <v>28</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <v>5944.5689435009999</v>
+      </c>
+      <c r="F30">
+        <v>0.22952231970537301</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="2">
+        <v>29</v>
+      </c>
+      <c r="C31" s="2">
+        <v>29</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>3134.0114403463199</v>
+      </c>
+      <c r="F31">
+        <v>0.14630581206267701</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="2">
+        <v>30</v>
+      </c>
+      <c r="C32" s="2">
+        <v>30</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32">
+        <v>1852.3476055209201</v>
+      </c>
+      <c r="F32">
+        <v>9.39045437894441E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="2">
+        <v>31</v>
+      </c>
+      <c r="C33" s="2">
+        <v>31</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>1005.5250808967299</v>
+      </c>
+      <c r="F33">
+        <v>4.7303404301939599E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="2">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2">
+        <v>32</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>984.07697394918796</v>
+      </c>
+      <c r="F34">
+        <v>4.6913572793368399E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="2">
+        <v>33</v>
+      </c>
+      <c r="C35" s="2">
+        <v>33</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <v>1871.0247252833899</v>
+      </c>
+      <c r="F35">
+        <v>8.6672047654482998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="2">
+        <v>34</v>
+      </c>
+      <c r="C36" s="2">
+        <v>34</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36">
+        <v>3256.2158478452102</v>
+      </c>
+      <c r="F36">
+        <v>0.124293715951973</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="2">
+        <v>35</v>
+      </c>
+      <c r="C37" s="2">
+        <v>35</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37">
+        <v>4966.7770116071897</v>
+      </c>
+      <c r="F37">
+        <v>0.22032602509515301</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="2">
+        <v>36</v>
+      </c>
+      <c r="C38" s="2">
+        <v>36</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38">
+        <v>130703.906330709</v>
+      </c>
+      <c r="F38">
+        <v>0.75967322279984195</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="2">
+        <v>37</v>
+      </c>
+      <c r="C39" s="2">
+        <v>37</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39">
+        <v>5058.61272217239</v>
+      </c>
+      <c r="F39">
+        <v>0.194838525584038</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="2">
+        <v>38</v>
+      </c>
+      <c r="C40" s="2">
+        <v>38</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40">
+        <v>2664.4467257256301</v>
+      </c>
+      <c r="F40">
+        <v>0.104211595649515</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="2">
+        <v>39</v>
+      </c>
+      <c r="C41" s="2">
+        <v>39</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41">
+        <v>1936.1148117645801</v>
+      </c>
+      <c r="F41">
+        <v>7.9438386629092098E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="2">
+        <v>40</v>
+      </c>
+      <c r="C42" s="2">
+        <v>40</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42">
+        <v>1568.5416320624399</v>
+      </c>
+      <c r="F42">
+        <v>6.5828717178541205E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="2">
+        <v>41</v>
+      </c>
+      <c r="C43" s="2">
+        <v>41</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>1460.42883797181</v>
+      </c>
+      <c r="F43">
+        <v>6.8964918959961402E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="2">
+        <v>42</v>
+      </c>
+      <c r="C44" s="2">
+        <v>42</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44">
+        <v>1939.3115138266</v>
+      </c>
+      <c r="F44">
+        <v>8.2455593010371295E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="2">
+        <v>43</v>
+      </c>
+      <c r="C45" s="2">
+        <v>43</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>2499.5198886808898</v>
+      </c>
+      <c r="F45">
+        <v>9.1190964379411404E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="2">
+        <v>44</v>
+      </c>
+      <c r="C46" s="2">
+        <v>44</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46">
+        <v>5639.4273084197703</v>
+      </c>
+      <c r="F46">
+        <v>8.11277209844459E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="2">
+        <v>45</v>
+      </c>
+      <c r="C47" s="2">
+        <v>45</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47">
+        <v>13734.715399099299</v>
+      </c>
+      <c r="F47">
+        <v>0.16125428448169199</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="2">
+        <v>46</v>
+      </c>
+      <c r="C48" s="2">
+        <v>46</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48">
+        <v>3059.6640910995402</v>
+      </c>
+      <c r="F48">
+        <v>0.11945069166465</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="2">
+        <v>47</v>
+      </c>
+      <c r="C49" s="2">
+        <v>47</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>2181.1894263674099</v>
+      </c>
+      <c r="F49">
+        <v>8.1276125690340095E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="2">
+        <v>48</v>
+      </c>
+      <c r="C50" s="2">
+        <v>48</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50">
+        <v>2025.7666947641001</v>
+      </c>
+      <c r="F50">
+        <v>8.7520806578954696E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="2">
+        <v>49</v>
+      </c>
+      <c r="C51" s="2">
+        <v>49</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51">
+        <v>1550.15300688569</v>
+      </c>
+      <c r="F51">
+        <v>6.1302674741151697E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="2">
+        <v>50</v>
+      </c>
+      <c r="C52" s="2">
+        <v>50</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52">
+        <v>1678.8758453236201</v>
+      </c>
+      <c r="F52">
+        <v>6.5774970339662994E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="2">
+        <v>51</v>
+      </c>
+      <c r="C53" s="2">
+        <v>51</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53">
+        <v>1875.3923135259299</v>
+      </c>
+      <c r="F53">
+        <v>7.6541155217419901E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="2">
+        <v>52</v>
+      </c>
+      <c r="C54" s="2">
+        <v>52</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54">
+        <v>2002.59523951352</v>
+      </c>
+      <c r="F54">
+        <v>7.4036894144384802E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="2">
+        <v>53</v>
+      </c>
+      <c r="C55" s="2">
+        <v>53</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55">
+        <v>2501.4267854180398</v>
+      </c>
+      <c r="F55">
+        <v>7.8595912401712903E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="2">
+        <v>54</v>
+      </c>
+      <c r="C56" s="2">
+        <v>54</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56">
+        <v>2247.8829125002699</v>
+      </c>
+      <c r="F56">
+        <v>8.7050369576255796E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="2">
+        <v>55</v>
+      </c>
+      <c r="C57" s="2">
+        <v>55</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57">
+        <v>2007.95418915449</v>
+      </c>
+      <c r="F57">
+        <v>7.9196003264421097E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="2">
+        <v>56</v>
+      </c>
+      <c r="C58" s="2">
+        <v>56</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58">
+        <v>1743.97361930584</v>
+      </c>
+      <c r="F58">
+        <v>7.0254328153808193E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="2">
+        <v>57</v>
+      </c>
+      <c r="C59" s="2">
+        <v>57</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59">
+        <v>1543.5938688175299</v>
+      </c>
+      <c r="F59">
+        <v>6.0866101619830901E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="2">
+        <v>58</v>
+      </c>
+      <c r="C60" s="2">
+        <v>58</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E60">
+        <v>1801.1800277038201</v>
+      </c>
+      <c r="F60">
+        <v>8.1244473986312002E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="2">
+        <v>59</v>
+      </c>
+      <c r="C61" s="2">
+        <v>59</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61">
+        <v>1764.19607046292</v>
+      </c>
+      <c r="F61">
+        <v>6.9827349981043701E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="2">
+        <v>60</v>
+      </c>
+      <c r="C62" s="2">
+        <v>60</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62">
+        <v>1885.56996746749</v>
+      </c>
+      <c r="F62">
+        <v>7.8402718181728601E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="2">
+        <v>61</v>
+      </c>
+      <c r="C63" s="2">
+        <v>61</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>1375.08963163609</v>
+      </c>
+      <c r="F63">
+        <v>6.1385186919338003E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
@@ -5036,13 +6845,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3DDEB4-DC88-4FC8-A483-D19AAFAC10A6}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5938,7 +7745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477FBDDC-C8EB-42DD-A3AC-0BD12519E51F}">
   <dimension ref="A1:D63"/>
   <sheetViews>
@@ -6838,7 +8645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED6C7B9-DCB8-4A51-A636-E235D35DF19A}">
   <dimension ref="A1:D63"/>
   <sheetViews>
@@ -7739,7 +9546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621C6E08-CD24-4927-92AB-F2EE5477C4D7}">
   <dimension ref="A1:D63"/>
   <sheetViews>
@@ -8640,7 +10447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814A66B6-47F5-4D38-A129-A3D3B97302D9}">
   <dimension ref="A1:F63"/>
   <sheetViews>
@@ -9539,904 +11346,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EAFD91-6FDD-4E7B-8AEB-0969C16E2F78}">
-  <dimension ref="A1:D63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="1">
-        <v>-0.68132599999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-0.68982699999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="1">
-        <v>-0.708708</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-0.71575599999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="1">
-        <v>-0.71599599999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-0.72199999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1">
-        <v>-0.767432</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1">
-        <v>-0.76957699999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="1">
-        <v>-0.77654000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1">
-        <v>-0.78383000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="1">
-        <v>-0.78642999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="1">
-        <v>-0.78888000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1">
-        <v>-0.79664900000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="1">
-        <v>-0.80477699999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="1">
-        <v>-0.81232700000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="1">
-        <v>-0.81735500000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>39</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="1">
-        <v>-0.82128599999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="1">
-        <v>-0.82751399999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>34</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="1">
-        <v>-0.83095799999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>15</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="1">
-        <v>-0.83143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>38</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="1">
-        <v>-0.83247499999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>43</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1">
-        <v>-0.86903900000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>48</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="1">
-        <v>-0.88529500000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>19</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="1">
-        <v>-0.90429000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>47</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="1">
-        <v>-0.91323900000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>42</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="1">
-        <v>-0.92286699999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <v>57</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="1">
-        <v>-0.93002200000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
-        <v>54</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="1">
-        <v>-0.93906000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1">
-        <v>-0.948322</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1">
-        <v>61</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="1">
-        <v>-0.95650999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1">
-        <v>53</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="1">
-        <v>-0.95657700000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
-        <v>17</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="1">
-        <v>-0.95757000000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="1">
-        <v>-0.96019299999999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1">
-        <v>52</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="1">
-        <v>-0.97586200000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1">
-        <v>41</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="1">
-        <v>-0.98143000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1">
-        <v>60</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="1">
-        <v>-0.98394400000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1">
-        <v>13</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="1">
-        <v>-0.98895900000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1">
-        <v>51</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="1">
-        <v>-1.00177</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1">
-        <v>2</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="1">
-        <v>-1.00657</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1">
-        <v>22</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="1">
-        <v>-1.01013</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1">
-        <v>40</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="1">
-        <v>-1.01128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1">
-        <v>56</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="1">
-        <v>-1.0119499999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1">
-        <v>49</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="1">
-        <v>-1.0170300000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1">
-        <v>59</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="1">
-        <v>-1.0263500000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1">
-        <v>50</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="1">
-        <v>-1.0396399999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1">
-        <v>46</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="1">
-        <v>-1.04237</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1">
-        <v>14</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="1">
-        <v>-1.04908</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1">
-        <v>31</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="1">
-        <v>-1.08196</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1">
-        <v>35</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="1">
-        <v>-1.0972</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1">
-        <v>23</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1">
-        <v>-1.10314</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1">
-        <v>32</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="1">
-        <v>-1.1107499999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1">
-        <v>58</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" s="1">
-        <v>-1.1178900000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1">
-        <v>37</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="1">
-        <v>-1.125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1">
-        <v>45</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D55" s="1">
-        <v>-1.1382399999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1">
-        <v>28</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="1">
-        <v>-1.18154</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1">
-        <v>18</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="1">
-        <v>-1.2151099999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58" s="1">
-        <v>44</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" s="1">
-        <v>-1.2319800000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59" s="1">
-        <v>55</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="1">
-        <v>-1.27948</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1">
-        <v>26</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="1">
-        <v>-1.3246500000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61" s="1">
-        <v>36</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="1">
-        <v>-1.4127000000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62" s="1">
-        <v>5</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D62" s="1">
-        <v>-1.45506</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="B63" s="1">
-        <v>27</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D63" s="1">
-        <v>-1.58636</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Distribution/Electrode_Rankings/electrodes_ranking.xlsx
+++ b/Distribution/Electrode_Rankings/electrodes_ranking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm\Distribution\Electrode_Rankings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DC8E3C-44C0-4B59-B9C2-B2D91B151788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3FF9E2-64D4-474A-AE26-0B94D2F4DB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ranking" sheetId="5" r:id="rId1"/>
@@ -1078,7 +1078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFAF64A-5DEA-4FD4-B8E4-1ED29CE4150B}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3447,9 +3447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AE29D4-638D-4C81-8AC6-D9273822ACF9}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4352,7 +4350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827548C2-EC26-48AF-982F-F177A04DD394}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5444,9 +5442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
